--- a/geohash/coords.xlsx
+++ b/geohash/coords.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
